--- a/Documents/Features List.xlsx
+++ b/Documents/Features List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rohan\Personal\Courses\Summer Of Code\SPDX\license-mgmt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445FE29B-973F-45E3-A0E0-E16E9679D7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D212190D-678D-4745-9E49-C920C1721519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1980" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="82">
   <si>
     <t>Feature List</t>
   </si>
@@ -299,9 +299,6 @@
   </si>
   <si>
     <t>The format and the logic behind it should be decided</t>
-  </si>
-  <si>
-    <t>It will be developed towards the end, after all other features are completed</t>
   </si>
   <si>
     <t>Publisher Flow:</t>
@@ -453,8 +450,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,12 +463,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,30 +752,30 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="67.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="67.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -798,11 +795,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -816,11 +813,11 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -832,11 +829,11 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -850,11 +847,11 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
@@ -866,11 +863,11 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -882,11 +879,11 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
@@ -898,11 +895,11 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -916,11 +913,11 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
@@ -932,11 +929,11 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
@@ -944,17 +941,15 @@
         <v>27</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
@@ -966,11 +961,11 @@
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
@@ -982,11 +977,11 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
         <v>33</v>
       </c>
@@ -998,11 +993,11 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="3" t="s">
         <v>35</v>
       </c>
@@ -1014,11 +1009,11 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
@@ -1030,11 +1025,11 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1046,11 +1041,11 @@
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1064,11 +1059,11 @@
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="10"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
@@ -1076,17 +1071,15 @@
         <v>43</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
@@ -1098,11 +1091,11 @@
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="3" t="s">
         <v>44</v>
       </c>
@@ -1114,11 +1107,11 @@
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="3" t="s">
         <v>46</v>
       </c>
@@ -1130,11 +1123,11 @@
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
@@ -1146,11 +1139,11 @@
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1162,11 +1155,11 @@
       </c>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1178,11 +1171,11 @@
       </c>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1196,11 +1189,11 @@
       </c>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B27" s="8"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>26</v>
       </c>
@@ -1208,17 +1201,15 @@
         <v>43</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="8"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3" t="s">
         <v>29</v>
       </c>
@@ -1230,11 +1221,11 @@
       </c>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B29" s="8"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1246,11 +1237,11 @@
       </c>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
         <v>46</v>
       </c>
@@ -1262,11 +1253,11 @@
       </c>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
-      <c r="B31" s="8"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3" t="s">
         <v>35</v>
       </c>
@@ -1278,11 +1269,11 @@
       </c>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="8"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
         <v>49</v>
       </c>
@@ -1294,11 +1285,11 @@
       </c>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
-      <c r="B33" s="8"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
@@ -1310,11 +1301,11 @@
       </c>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="8"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3" t="s">
         <v>56</v>
       </c>
@@ -1326,11 +1317,11 @@
       </c>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="8"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
         <v>55</v>
       </c>
@@ -1342,11 +1333,11 @@
       </c>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
         <v>49</v>
       </c>
@@ -1358,11 +1349,11 @@
       </c>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3" t="s">
         <v>39</v>
       </c>
@@ -1374,47 +1365,45 @@
       </c>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>77</v>
+      <c r="B38" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
-      <c r="B39" s="10"/>
+      <c r="B39" s="11"/>
       <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
+      <c r="B40" s="11"/>
       <c r="C40" s="3" t="s">
         <v>29</v>
       </c>
@@ -1426,43 +1415,43 @@
       </c>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
-      <c r="B41" s="10"/>
+      <c r="B41" s="11"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -1476,11 +1465,11 @@
       </c>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
+      <c r="B44" s="11"/>
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
@@ -1492,11 +1481,11 @@
       </c>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="3" t="s">
         <v>64</v>
       </c>
@@ -1508,7 +1497,7 @@
       </c>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -1528,7 +1517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -1546,7 +1535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -1564,13 +1553,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="8">
